--- a/DesignDocs/VariableData/TubeRelic.xlsx
+++ b/DesignDocs/VariableData/TubeRelic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B740A38E-A689-4BEF-AE7B-FF6F6F0EEBA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{E2EA5E2A-B911-401E-819B-7A3CBC46BC92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,14 +104,54 @@
   </si>
   <si>
     <t>gangster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner_relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부 렐릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleanerR_relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량청소부 렐릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmithsSmithy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +164,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -151,9 +198,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,22 +518,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28D9491-0E2E-4B71-AA17-E25E11B451D8}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>4100</v>
       </c>
@@ -532,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4101</v>
       </c>
@@ -555,9 +606,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>5118</v>
+        <v>8100</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -576,6 +627,52 @@
       </c>
       <c r="G4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>8101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>8102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/TubeRelic.xlsx
+++ b/DesignDocs/VariableData/TubeRelic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA988C-2657-4F61-95EA-C8262EA149C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,12 +146,102 @@
   <si>
     <t>poison_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이01 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 스네어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_02</t>
+  </si>
+  <si>
+    <t>핏불 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 화염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Caerbannog</t>
+  </si>
+  <si>
+    <t>카르바노그 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Tim_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Tim_02</t>
+  </si>
+  <si>
+    <t>팀 공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Tim_03</t>
+  </si>
+  <si>
+    <t>팀 방업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_MadBuddy_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디 독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_MadBuddy_02</t>
+  </si>
+  <si>
+    <t>매드버디 슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01</t>
+  </si>
+  <si>
+    <t>13_pitbull_01</t>
+  </si>
+  <si>
+    <t>13_Salamander</t>
+  </si>
+  <si>
+    <t>13_Tim_01</t>
+  </si>
+  <si>
+    <t>13_MadBuddy_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,12 +267,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,12 +295,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,23 +618,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4100</v>
       </c>
@@ -583,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4101</v>
       </c>
@@ -606,7 +706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8100</v>
       </c>
@@ -629,7 +729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8101</v>
       </c>
@@ -652,7 +752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8102</v>
       </c>
@@ -673,6 +773,236 @@
       </c>
       <c r="G6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>8103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>8104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8106</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>8109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8110</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>8111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/TubeRelic.xlsx
+++ b/DesignDocs/VariableData/TubeRelic.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADA988C-2657-4F61-95EA-C8262EA149C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,23 +617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>4100</v>
       </c>
@@ -683,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4101</v>
       </c>
@@ -706,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8100</v>
       </c>
@@ -729,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>8101</v>
       </c>
@@ -752,7 +751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>8102</v>
       </c>
@@ -775,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>8103</v>
       </c>
@@ -798,7 +797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>8104</v>
       </c>
@@ -821,7 +820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8105</v>
       </c>
@@ -844,7 +843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8106</v>
       </c>
@@ -867,7 +866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>8107</v>
       </c>
@@ -890,7 +889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8108</v>
       </c>
@@ -913,7 +912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>8109</v>
       </c>
@@ -936,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8110</v>
       </c>
@@ -959,7 +958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8111</v>
       </c>
@@ -982,7 +981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>8112</v>
       </c>
